--- a/data/classifier_test/broad_assets_ht_trendmode_lag1_test.xlsx
+++ b/data/classifier_test/broad_assets_ht_trendmode_lag1_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,19 +503,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44018</v>
+        <v>43948</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44025</v>
+        <v>43955</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44032</v>
+        <v>43962</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44039</v>
+        <v>43969</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -644,18 +644,18 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44046</v>
+        <v>43973</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -667,22 +667,22 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44053</v>
+        <v>43983</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44060</v>
+        <v>43990</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44067</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44074</v>
+        <v>44004</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078</v>
+        <v>44011</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44088</v>
+        <v>44018</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -907,21 +907,21 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44095</v>
+        <v>44025</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -930,19 +930,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44102</v>
+        <v>44032</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -983,21 +983,21 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44109</v>
+        <v>44039</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44116</v>
+        <v>44046</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44123</v>
+        <v>44053</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44130</v>
+        <v>44060</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44137</v>
+        <v>44067</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144</v>
+        <v>44074</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1205,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44151</v>
+        <v>44078</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1234,16 +1234,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1258,12 +1258,12 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158</v>
+        <v>44088</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44165</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1319,19 +1319,19 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44172</v>
+        <v>44102</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1363,21 +1363,21 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44179</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44116</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1436,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44193</v>
+        <v>44123</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44200</v>
+        <v>44130</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44211</v>
+        <v>44144</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44221</v>
+        <v>44151</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1614,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1632,18 +1632,18 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44228</v>
+        <v>44158</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1681,16 +1681,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44235</v>
+        <v>44165</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1795,19 +1795,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44186</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1822,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44263</v>
+        <v>44193</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1842,19 +1842,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44270</v>
+        <v>44200</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44277</v>
+        <v>44207</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1959,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1985,37 +1985,37 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44298</v>
+        <v>44228</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2035,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2047,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2094,12 +2094,12 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -2120,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -2164,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44326</v>
+        <v>44256</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44333</v>
+        <v>44263</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2222,22 +2222,22 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2327,22 +2327,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44361</v>
+        <v>44291</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44368</v>
+        <v>44298</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2427,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44375</v>
+        <v>44305</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2465,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44379</v>
+        <v>44312</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2512,12 +2512,12 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -2585,15 +2585,15 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2602,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2617,13 +2617,13 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -2661,18 +2661,18 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44417</v>
+        <v>44344</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44424</v>
+        <v>44354</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44361</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2754,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2772,18 +2772,18 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44438</v>
+        <v>44368</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44442</v>
+        <v>44375</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2830,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2854,12 +2854,12 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44452</v>
+        <v>44379</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2886,21 +2886,21 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -2915,19 +2915,19 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2956,27 +2956,27 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -3000,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3026,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -3041,15 +3041,15 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44487</v>
+        <v>44417</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3087,19 +3087,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44494</v>
+        <v>44424</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3114,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44501</v>
+        <v>44431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3134,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3158,12 +3158,12 @@
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44508</v>
+        <v>44438</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3187,13 +3187,13 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44515</v>
+        <v>44442</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3228,18 +3228,18 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3263,30 +3263,30 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3295,16 +3295,16 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44536</v>
+        <v>44466</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -3391,22 +3391,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3429,22 +3429,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44557</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3459,27 +3459,27 @@
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44564</v>
+        <v>44494</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3491,13 +3491,13 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44575</v>
+        <v>44508</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44585</v>
+        <v>44515</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3605,21 +3605,21 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44592</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3643,21 +3643,21 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -3666,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44606</v>
+        <v>44536</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3704,16 +3704,16 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3722,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44610</v>
+        <v>44543</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -3771,19 +3771,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44620</v>
+        <v>44550</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -3792,13 +3792,13 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44627</v>
+        <v>44557</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3839,15 +3839,15 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44634</v>
+        <v>44564</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -3856,22 +3856,22 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44641</v>
+        <v>44571</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -3897,13 +3897,13 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44648</v>
+        <v>44575</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44655</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44662</v>
+        <v>44592</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44669</v>
+        <v>44599</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4061,21 +4061,21 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44676</v>
+        <v>44606</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4102,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44683</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4137,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44690</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4172,13 +4172,13 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44697</v>
+        <v>44627</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4222,12 +4222,12 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44704</v>
+        <v>44634</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44708</v>
+        <v>44641</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -4277,19 +4277,19 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -4298,12 +4298,12 @@
         <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44718</v>
+        <v>44648</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44725</v>
+        <v>44655</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44732</v>
+        <v>44662</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44739</v>
+        <v>44669</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -4450,18 +4450,18 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44743</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44753</v>
+        <v>44683</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44760</v>
+        <v>44690</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44767</v>
+        <v>44697</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -4584,10 +4584,10 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4602,12 +4602,12 @@
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44774</v>
+        <v>44704</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44781</v>
+        <v>44708</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -4678,12 +4678,12 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44795</v>
+        <v>44725</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -4748,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44802</v>
+        <v>44732</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44806</v>
+        <v>44739</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -4835,13 +4835,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44816</v>
+        <v>44743</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44823</v>
+        <v>44753</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44830</v>
+        <v>44760</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44837</v>
+        <v>44767</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -4964,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44844</v>
+        <v>44774</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44851</v>
+        <v>44781</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44858</v>
+        <v>44788</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -5075,16 +5075,16 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44865</v>
+        <v>44795</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v>1</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44872</v>
+        <v>44802</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -5163,21 +5163,21 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44879</v>
+        <v>44806</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44886</v>
+        <v>44816</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44900</v>
+        <v>44830</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44914</v>
+        <v>44844</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44851</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44925</v>
+        <v>44858</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -5452,13 +5452,13 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>1</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44935</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -5508,18 +5508,18 @@
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44939</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5528,16 +5528,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -5552,12 +5552,12 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44949</v>
+        <v>44879</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44963</v>
+        <v>44893</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44970</v>
+        <v>44900</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -5683,10 +5683,10 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -5724,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -5785,13 +5785,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44991</v>
+        <v>44918</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -5823,19 +5823,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44998</v>
+        <v>44925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45005</v>
+        <v>44935</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -5891,15 +5891,15 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -5908,16 +5908,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>1</v>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45019</v>
+        <v>44949</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -5958,10 +5958,10 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45026</v>
+        <v>44956</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45033</v>
+        <v>44963</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45040</v>
+        <v>44970</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -6060,10 +6060,10 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45047</v>
+        <v>44974</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45054</v>
+        <v>44984</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -6139,13 +6139,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
         <v>1</v>
@@ -6165,31 +6165,31 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45061</v>
+        <v>44991</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -6203,13 +6203,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45068</v>
+        <v>44998</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -6224,16 +6224,16 @@
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
         <v>1</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45072</v>
+        <v>45005</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6265,13 +6265,13 @@
         <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>1</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45082</v>
+        <v>45012</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -6294,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
         <v>1</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45089</v>
+        <v>45019</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -6335,13 +6335,13 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45096</v>
+        <v>45026</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45103</v>
+        <v>45033</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45110</v>
+        <v>45040</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -6440,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6452,13 +6452,13 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>1</v>
@@ -6469,19 +6469,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45117</v>
+        <v>45047</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6490,16 +6490,16 @@
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>1</v>
@@ -6507,25 +6507,25 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45124</v>
+        <v>45054</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -6534,27 +6534,27 @@
         <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45131</v>
+        <v>45061</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -6563,13 +6563,13 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45138</v>
+        <v>45068</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -6607,13 +6607,13 @@
         <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>1</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -6645,10 +6645,10 @@
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
         <v>1</v>
@@ -6659,10 +6659,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45152</v>
+        <v>45082</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" t="n">
         <v>1</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45159</v>
+        <v>45089</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45166</v>
+        <v>45096</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45170</v>
+        <v>45103</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -6800,27 +6800,27 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
         <v>1</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45180</v>
+        <v>45110</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -6838,10 +6838,10 @@
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" t="n">
         <v>1</v>
@@ -6849,19 +6849,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45187</v>
+        <v>45117</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -6870,16 +6870,16 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="n">
         <v>1</v>
@@ -6887,10 +6887,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45194</v>
+        <v>45124</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -6899,33 +6899,33 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45201</v>
+        <v>45131</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45208</v>
+        <v>45138</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -6990,18 +6990,18 @@
         <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
         <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45215</v>
+        <v>45145</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
         <v>1</v>
@@ -7039,10 +7039,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45222</v>
+        <v>45152</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45229</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -7104,18 +7104,18 @@
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45236</v>
+        <v>45166</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7142,18 +7142,18 @@
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45243</v>
+        <v>45170</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
@@ -7191,37 +7191,37 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45250</v>
+        <v>45180</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>1</v>
@@ -7229,19 +7229,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45257</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7267,37 +7267,37 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45264</v>
+        <v>45194</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45271</v>
+        <v>45201</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45278</v>
+        <v>45208</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7367,21 +7367,21 @@
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45282</v>
+        <v>45215</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45289</v>
+        <v>45222</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45299</v>
+        <v>45229</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
         <v>1</v>
@@ -7495,19 +7495,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45303</v>
+        <v>45236</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7522,10 +7522,10 @@
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" t="n">
         <v>0</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45313</v>
+        <v>45243</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -7563,15 +7563,15 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45320</v>
+        <v>45250</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45327</v>
+        <v>45257</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -7621,19 +7621,19 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45334</v>
+        <v>45264</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45338</v>
+        <v>45271</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -7715,15 +7715,15 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45348</v>
+        <v>45278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -7744,24 +7744,24 @@
         <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45355</v>
+        <v>45282</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -7779,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -7791,15 +7791,15 @@
         <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45362</v>
+        <v>45289</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -7826,18 +7826,18 @@
         <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
         <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45369</v>
+        <v>45299</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -7870,15 +7870,15 @@
         <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45376</v>
+        <v>45303</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -7902,18 +7902,18 @@
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45383</v>
+        <v>45313</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -7922,10 +7922,10 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -7937,13 +7937,13 @@
         <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>1</v>
@@ -7951,31 +7951,31 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45390</v>
+        <v>45320</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -7989,13 +7989,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
         <v>1</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45404</v>
+        <v>45334</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45411</v>
+        <v>45338</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -8095,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45418</v>
+        <v>45348</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45425</v>
+        <v>45355</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -8168,18 +8168,18 @@
         <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45432</v>
+        <v>45362</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -8209,15 +8209,15 @@
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45369</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -8255,13 +8255,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45446</v>
+        <v>45376</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -8282,18 +8282,18 @@
         <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45453</v>
+        <v>45383</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -8320,10 +8320,10 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="n">
         <v>1</v>
@@ -8331,16 +8331,16 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45460</v>
+        <v>45390</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208" t="n">
         <v>1</v>
@@ -8369,28 +8369,28 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45467</v>
+        <v>45397</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45474</v>
+        <v>45404</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -8440,12 +8440,12 @@
         <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45481</v>
+        <v>45411</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -8457,10 +8457,10 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8469,21 +8469,21 @@
         <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
         <v>1</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45488</v>
+        <v>45418</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -8492,19 +8492,19 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -8516,30 +8516,30 @@
         <v>1</v>
       </c>
       <c r="L212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45495</v>
+        <v>45425</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -8548,21 +8548,21 @@
         <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" t="n">
         <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45502</v>
+        <v>45432</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>1</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45509</v>
+        <v>45436</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -8606,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
@@ -8618,13 +8618,13 @@
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
       </c>
       <c r="J215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215" t="n">
         <v>1</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45516</v>
+        <v>45446</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -8647,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -8665,15 +8665,15 @@
         <v>1</v>
       </c>
       <c r="K216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45523</v>
+        <v>45453</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -8682,28 +8682,28 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
         <v>1</v>
       </c>
       <c r="K217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>1</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45460</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -8723,22 +8723,22 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
         <v>1</v>
@@ -8749,39 +8749,419 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1</v>
-      </c>
-      <c r="L219" t="n">
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
         <v>0</v>
       </c>
     </row>
